--- a/src/test/resources/com/sirion/xls/Client Setup Admin Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Client Setup Admin Suite.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="ClientSupplierCreation" sheetId="2" r:id="rId2"/>
     <sheet name="ApplicationProvisioning" sheetId="3" r:id="rId3"/>
+    <sheet name="DashboardSetup" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
   <si>
     <t>TCID</t>
   </si>
@@ -30,9 +31,6 @@
     <t>Results</t>
   </si>
   <si>
-    <t>Create Client or Supplier Description</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -45,68 +43,61 @@
     <t>ClientSupplierCreation</t>
   </si>
   <si>
-    <t>supplierType</t>
+    <t>clientAlias</t>
+  </si>
+  <si>
+    <t>MODERN</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>clientTimezone</t>
+  </si>
+  <si>
+    <t>clientSupplierType</t>
+  </si>
+  <si>
+    <t>clientHomePage</t>
+  </si>
+  <si>
+    <t>clientEnableHTML</t>
+  </si>
+  <si>
+    <t>clientEnableDate</t>
+  </si>
+  <si>
+    <t>clientActive</t>
+  </si>
+  <si>
+    <t>Europe/London (GMT +00:00)</t>
+  </si>
+  <si>
+    <t>testCaseid</t>
+  </si>
+  <si>
+    <t>TS-196</t>
+  </si>
+  <si>
+    <t>ApplicationProvisioning</t>
+  </si>
+  <si>
+    <t>DashboardSetup</t>
+  </si>
+  <si>
+    <t>Automation Supplier</t>
+  </si>
+  <si>
+    <t>aus</t>
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>clientAlias</t>
-  </si>
-  <si>
-    <t>Logout</t>
-  </si>
-  <si>
-    <t>home_page_view</t>
-  </si>
-  <si>
-    <t>CLASSIC</t>
-  </si>
-  <si>
-    <t>MODERN</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>ApplicationProvisioning</t>
-  </si>
-  <si>
-    <t>ApplicationProvisioning Description</t>
-  </si>
-  <si>
-    <t>Automation</t>
-  </si>
-  <si>
-    <t>auto</t>
-  </si>
-  <si>
-    <t>Kasauli</t>
-  </si>
-  <si>
-    <t>kas</t>
-  </si>
-  <si>
-    <t>Regression</t>
-  </si>
-  <si>
-    <t>reg</t>
-  </si>
-  <si>
-    <t>Sanity</t>
-  </si>
-  <si>
-    <t>san</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -116,20 +107,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,6 +134,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -170,15 +171,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,81 +492,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="2" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2"/>
+      <c r="A4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -567,125 +578,114 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -694,80 +694,112 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2"/>
+      <c r="E3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/com/sirion/xls/Client Setup Admin Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Client Setup Admin Suite.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
   <si>
     <t>TCID</t>
   </si>
@@ -85,19 +85,26 @@
     <t>DashboardSetup</t>
   </si>
   <si>
-    <t>Automation Supplier</t>
-  </si>
-  <si>
-    <t>aus</t>
-  </si>
-  <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Ajay Supplier</t>
+  </si>
+  <si>
+    <t>ajay</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -496,15 +503,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.58203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="5.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -541,7 +548,9 @@
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -554,7 +563,9 @@
       <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -567,7 +578,9 @@
       <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="E5" s="7"/>
     </row>
   </sheetData>
@@ -582,23 +595,23 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="7.58203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="5.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -650,7 +663,9 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="3"/>
+      <c r="K2" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -658,13 +673,13 @@
         <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
@@ -673,10 +688,10 @@
         <v>9</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>10</v>
@@ -684,7 +699,9 @@
       <c r="J3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="L3" s="2"/>
     </row>
   </sheetData>
@@ -696,15 +713,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.58203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="5.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -728,7 +747,9 @@
       <c r="A2" s="5"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -736,12 +757,14 @@
         <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="E3" s="2"/>
     </row>
   </sheetData>
@@ -753,15 +776,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.58203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="5.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -785,7 +810,9 @@
       <c r="A2" s="5"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -793,12 +820,14 @@
         <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="E3" s="2"/>
     </row>
   </sheetData>

--- a/src/test/resources/com/sirion/xls/Client Setup Admin Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Client Setup Admin Suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
   <si>
     <t>TCID</t>
   </si>
@@ -85,19 +85,26 @@
     <t>DashboardSetup</t>
   </si>
   <si>
-    <t>Automation Supplier</t>
-  </si>
-  <si>
-    <t>aus</t>
-  </si>
-  <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>aut</t>
+  </si>
+  <si>
+    <t>Auto Supplier</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -494,17 +501,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.58203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="5.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -541,7 +548,9 @@
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -554,7 +563,9 @@
       <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -567,7 +578,9 @@
       <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="E5" s="7"/>
     </row>
   </sheetData>
@@ -582,23 +595,23 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="7.58203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="5.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -650,7 +663,9 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="3"/>
+      <c r="K2" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -658,7 +673,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
@@ -673,10 +688,10 @@
         <v>9</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>10</v>
@@ -684,7 +699,9 @@
       <c r="J3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="L3" s="2"/>
     </row>
   </sheetData>
@@ -696,15 +713,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.58203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="5.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -728,7 +747,9 @@
       <c r="A2" s="5"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -736,12 +757,14 @@
         <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="E3" s="2"/>
     </row>
   </sheetData>
@@ -753,15 +776,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.58203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="5.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -785,7 +810,9 @@
       <c r="A2" s="5"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -793,12 +820,14 @@
         <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="E3" s="2"/>
     </row>
   </sheetData>

--- a/src/test/resources/com/sirion/xls/Client Setup Admin Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Client Setup Admin Suite.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
   <si>
     <t>TCID</t>
   </si>
@@ -85,26 +85,19 @@
     <t>DashboardSetup</t>
   </si>
   <si>
+    <t>Automation Supplier</t>
+  </si>
+  <si>
+    <t>aus</t>
+  </si>
+  <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Ajay Supplier</t>
-  </si>
-  <si>
-    <t>ajay</t>
-  </si>
-  <si>
-    <t>SKIP</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -503,15 +496,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.58203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="5.85546875" collapsed="true"/>
+    <col min="1" max="2" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -548,9 +541,7 @@
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -563,9 +554,7 @@
       <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -578,9 +567,7 @@
       <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
   </sheetData>
@@ -595,23 +582,23 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="7.58203125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="5.85546875" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -663,9 +650,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -673,13 +658,13 @@
         <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
@@ -688,10 +673,10 @@
         <v>9</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>10</v>
@@ -699,9 +684,7 @@
       <c r="J3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
   </sheetData>
@@ -713,17 +696,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.58203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="5.85546875" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -747,9 +728,7 @@
       <c r="A2" s="5"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -757,14 +736,12 @@
         <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
   </sheetData>
@@ -776,17 +753,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.58203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="5.85546875" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -810,9 +785,7 @@
       <c r="A2" s="5"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -820,14 +793,12 @@
         <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
   </sheetData>
